--- a/biology/Médecine/Florence_Ader/Florence_Ader.xlsx
+++ b/biology/Médecine/Florence_Ader/Florence_Ader.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Florence Ader, née en 1967, est une infectiologue et pneumologue française. Elle est chercheuse et clinicienne et travaille au Centre international de recherche en infectiologie (Ciri) et à l'hôpital de la Croix-Rousse de Lyon. En 2020, elle dirige l'essai clinique Discovery, qui a pour but de tester des traitements contre le coronavirus SARS-CoV-2[1]. En 2020, elle reçoit le Prix Recherche de l'INSERM[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Florence Ader, née en 1967, est une infectiologue et pneumologue française. Elle est chercheuse et clinicienne et travaille au Centre international de recherche en infectiologie (Ciri) et à l'hôpital de la Croix-Rousse de Lyon. En 2020, elle dirige l'essai clinique Discovery, qui a pour but de tester des traitements contre le coronavirus SARS-CoV-2. En 2020, elle reçoit le Prix Recherche de l'INSERM.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2008, elle soutient sa thèse de doctorat en écologie microbienne à l'Université Claude-Bernard-Lyon-I sous la direction de Christian Chidiac[3]. Elle est membre de la société de pathologie infectieuse de langue française[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2008, elle soutient sa thèse de doctorat en écologie microbienne à l'Université Claude-Bernard-Lyon-I sous la direction de Christian Chidiac. Elle est membre de la société de pathologie infectieuse de langue française.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Honneurs et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2020 : prix Recherche de l'INSERM[2]
-2020 :  Chevalière de la Légion d'honneur[5]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2020 : prix Recherche de l'INSERM
+2020 :  Chevalière de la Légion d'honneur</t>
         </is>
       </c>
     </row>
